--- a/data/pca/factorExposure/factorExposure_2009-04-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-04-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01704383774259418</v>
+        <v>0.01655751349133366</v>
       </c>
       <c r="C2">
-        <v>0.002012765050995448</v>
+        <v>-0.001355673163608554</v>
       </c>
       <c r="D2">
-        <v>0.01007586677655735</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01044138444460424</v>
+      </c>
+      <c r="E2">
+        <v>-0.002282743724190951</v>
+      </c>
+      <c r="F2">
+        <v>-0.01872407790225629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08602013178934047</v>
+        <v>0.08909560467341728</v>
       </c>
       <c r="C4">
-        <v>0.01997206068433298</v>
+        <v>-0.01552907679824316</v>
       </c>
       <c r="D4">
-        <v>0.0822282657517979</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08529603852879862</v>
+      </c>
+      <c r="E4">
+        <v>-0.03515799565868331</v>
+      </c>
+      <c r="F4">
+        <v>0.04269163892710028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0002561791827861673</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3.688057702923145e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0002015230857854646</v>
+      </c>
+      <c r="E5">
+        <v>8.442024510781646e-05</v>
+      </c>
+      <c r="F5">
+        <v>-0.001344632822814175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1601765419089917</v>
+        <v>0.1662587416416905</v>
       </c>
       <c r="C6">
-        <v>0.03642937938209805</v>
+        <v>-0.03461217020068989</v>
       </c>
       <c r="D6">
-        <v>-0.02414672458651008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01477100563961791</v>
+      </c>
+      <c r="E6">
+        <v>-0.01966427314976046</v>
+      </c>
+      <c r="F6">
+        <v>0.05589505954108109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.0553930256587095</v>
+        <v>0.06006767890770767</v>
       </c>
       <c r="C7">
-        <v>0.00168343007781146</v>
+        <v>0.001429204094956698</v>
       </c>
       <c r="D7">
-        <v>0.04803768908320517</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05295925988672161</v>
+      </c>
+      <c r="E7">
+        <v>-0.01725479385280333</v>
+      </c>
+      <c r="F7">
+        <v>0.05137314425246784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05783397022627779</v>
+        <v>0.05491457502964604</v>
       </c>
       <c r="C8">
-        <v>-0.009711743768897744</v>
+        <v>0.01151232885134519</v>
       </c>
       <c r="D8">
-        <v>0.03029959701834607</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03255082440909025</v>
+      </c>
+      <c r="E8">
+        <v>-0.01225865065192923</v>
+      </c>
+      <c r="F8">
+        <v>-0.03387629728774767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06683274013713429</v>
+        <v>0.06943745069487994</v>
       </c>
       <c r="C9">
-        <v>0.01565974649865309</v>
+        <v>-0.01120602184249471</v>
       </c>
       <c r="D9">
-        <v>0.08513560039438008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08856754395903801</v>
+      </c>
+      <c r="E9">
+        <v>-0.03313838844738373</v>
+      </c>
+      <c r="F9">
+        <v>0.06257396849949005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.09249656394947763</v>
+        <v>0.08989371695978736</v>
       </c>
       <c r="C10">
-        <v>0.0225246748817228</v>
+        <v>-0.02487098011317268</v>
       </c>
       <c r="D10">
-        <v>-0.1649662716902913</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1550475500346305</v>
+      </c>
+      <c r="E10">
+        <v>0.04183862002943989</v>
+      </c>
+      <c r="F10">
+        <v>-0.07144745931907981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08753831159663658</v>
+        <v>0.08477352178723425</v>
       </c>
       <c r="C11">
-        <v>0.01731513815252704</v>
+        <v>-0.01224119674746585</v>
       </c>
       <c r="D11">
-        <v>0.1205932786059461</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1249186433030574</v>
+      </c>
+      <c r="E11">
+        <v>-0.05852649874372665</v>
+      </c>
+      <c r="F11">
+        <v>0.01483133037476969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09259466218128569</v>
+        <v>0.08778343919342256</v>
       </c>
       <c r="C12">
-        <v>0.01532552953715243</v>
+        <v>-0.009656285891666465</v>
       </c>
       <c r="D12">
-        <v>0.1260755784621978</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1380082807884566</v>
+      </c>
+      <c r="E12">
+        <v>-0.06152061672420512</v>
+      </c>
+      <c r="F12">
+        <v>0.01847795511085974</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.0447179323530035</v>
+        <v>0.04496421551997731</v>
       </c>
       <c r="C13">
-        <v>0.007628241827518341</v>
+        <v>-0.004086504215075428</v>
       </c>
       <c r="D13">
-        <v>0.05018582368183899</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05782229205163361</v>
+      </c>
+      <c r="E13">
+        <v>-0.003626786338768003</v>
+      </c>
+      <c r="F13">
+        <v>0.01491155438588978</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01851877088820313</v>
+        <v>0.02163204258034062</v>
       </c>
       <c r="C14">
-        <v>0.01473779029902646</v>
+        <v>-0.01366747397960391</v>
       </c>
       <c r="D14">
-        <v>0.03280411584773007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03601110024671407</v>
+      </c>
+      <c r="E14">
+        <v>-0.02476896824543472</v>
+      </c>
+      <c r="F14">
+        <v>0.02058627395913189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03392510590082436</v>
+        <v>0.03477271662956371</v>
       </c>
       <c r="C15">
-        <v>0.008446911214968433</v>
+        <v>-0.00663226659992508</v>
       </c>
       <c r="D15">
-        <v>0.05104194918866701</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.05135994314062899</v>
+      </c>
+      <c r="E15">
+        <v>-0.0167223913303494</v>
+      </c>
+      <c r="F15">
+        <v>0.02853473331812257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.06897896413760632</v>
+        <v>0.06808196700283806</v>
       </c>
       <c r="C16">
-        <v>0.006275117800760713</v>
+        <v>-0.001236271459712177</v>
       </c>
       <c r="D16">
-        <v>0.1220650647996792</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1330026059202891</v>
+      </c>
+      <c r="E16">
+        <v>-0.07035016160513331</v>
+      </c>
+      <c r="F16">
+        <v>0.01651335045958771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.00236808978345528</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.001069412673405058</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.00202129107148955</v>
+      </c>
+      <c r="E17">
+        <v>-0.004890287598915246</v>
+      </c>
+      <c r="F17">
+        <v>-0.004258754451167644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02899763485296945</v>
+        <v>0.0462191873190971</v>
       </c>
       <c r="C18">
-        <v>-0.0001315081093316878</v>
+        <v>8.387817230159828e-05</v>
       </c>
       <c r="D18">
-        <v>0.0226269673165428</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.02200835695015593</v>
+      </c>
+      <c r="E18">
+        <v>0.004810023705379158</v>
+      </c>
+      <c r="F18">
+        <v>-0.01654806805354496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06304674925549023</v>
+        <v>0.06200637291962957</v>
       </c>
       <c r="C20">
-        <v>0.005421252274540268</v>
+        <v>-0.002320898327009531</v>
       </c>
       <c r="D20">
-        <v>0.08115666123472627</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.08494282038226496</v>
+      </c>
+      <c r="E20">
+        <v>-0.06718391848605422</v>
+      </c>
+      <c r="F20">
+        <v>0.03444594904514384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.0401154522925144</v>
+        <v>0.0424073401816952</v>
       </c>
       <c r="C21">
-        <v>0.00997893268381188</v>
+        <v>-0.007318314953694904</v>
       </c>
       <c r="D21">
-        <v>0.04072288418960834</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.04044287579643273</v>
+      </c>
+      <c r="E21">
+        <v>-0.001280218314460242</v>
+      </c>
+      <c r="F21">
+        <v>-0.01792984056206578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04537106983673563</v>
+        <v>0.0443047524869712</v>
       </c>
       <c r="C22">
-        <v>0.003864614178336475</v>
+        <v>-0.002531328020011993</v>
       </c>
       <c r="D22">
-        <v>0.001505002370913428</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.01140930228322018</v>
+      </c>
+      <c r="E22">
+        <v>-0.03527241288393483</v>
+      </c>
+      <c r="F22">
+        <v>-0.1016188291021976</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04537971415742221</v>
+        <v>0.04431213920545903</v>
       </c>
       <c r="C23">
-        <v>0.003866931511309831</v>
+        <v>-0.002533528674096098</v>
       </c>
       <c r="D23">
-        <v>0.001496377493791923</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01140261289678705</v>
+      </c>
+      <c r="E23">
+        <v>-0.03527938324299499</v>
+      </c>
+      <c r="F23">
+        <v>-0.1016600200289646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07669457760184466</v>
+        <v>0.07452443855046266</v>
       </c>
       <c r="C24">
-        <v>0.007196003782724471</v>
+        <v>-0.00237550035888937</v>
       </c>
       <c r="D24">
-        <v>0.1241972098758652</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.126985985754582</v>
+      </c>
+      <c r="E24">
+        <v>-0.05488229484223593</v>
+      </c>
+      <c r="F24">
+        <v>0.02632365579644659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08163355357140957</v>
+        <v>0.07911932533354257</v>
       </c>
       <c r="C25">
-        <v>0.009784406811679105</v>
+        <v>-0.005325376056670108</v>
       </c>
       <c r="D25">
-        <v>0.1117056965907047</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1149692421767466</v>
+      </c>
+      <c r="E25">
+        <v>-0.04357140495226917</v>
+      </c>
+      <c r="F25">
+        <v>0.02170287533561597</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05652142663922737</v>
+        <v>0.0616703670481006</v>
       </c>
       <c r="C26">
-        <v>0.01908533841267794</v>
+        <v>-0.01619102900724552</v>
       </c>
       <c r="D26">
-        <v>0.04887183371456517</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.05556329024030545</v>
+      </c>
+      <c r="E26">
+        <v>-0.03488114442596257</v>
+      </c>
+      <c r="F26">
+        <v>-0.008449324948324051</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1489093256697658</v>
+        <v>0.1539840416116211</v>
       </c>
       <c r="C28">
-        <v>0.02595113378150044</v>
+        <v>-0.03067670013069356</v>
       </c>
       <c r="D28">
-        <v>-0.2482343679109597</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2462048521792261</v>
+      </c>
+      <c r="E28">
+        <v>0.06306996616070931</v>
+      </c>
+      <c r="F28">
+        <v>0.01780434258527727</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02560154216470783</v>
+        <v>0.02786632788309745</v>
       </c>
       <c r="C29">
-        <v>0.009983329631031561</v>
+        <v>-0.009094705136253361</v>
       </c>
       <c r="D29">
-        <v>0.03208275261278057</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03399842473402332</v>
+      </c>
+      <c r="E29">
+        <v>-0.01657760075953283</v>
+      </c>
+      <c r="F29">
+        <v>-0.01833884853472626</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05250320213365318</v>
+        <v>0.05164333987423887</v>
       </c>
       <c r="C30">
-        <v>0.006177709522872949</v>
+        <v>-0.00226355842327772</v>
       </c>
       <c r="D30">
-        <v>0.08214088876794443</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08687139909919209</v>
+      </c>
+      <c r="E30">
+        <v>-0.02098685278140603</v>
+      </c>
+      <c r="F30">
+        <v>0.1103576192947526</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05125209453530669</v>
+        <v>0.05182980595752935</v>
       </c>
       <c r="C31">
-        <v>0.01897433432336425</v>
+        <v>-0.01696540694197436</v>
       </c>
       <c r="D31">
-        <v>0.02700639703912647</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02948747521343233</v>
+      </c>
+      <c r="E31">
+        <v>-0.03120186819508146</v>
+      </c>
+      <c r="F31">
+        <v>-0.01016987195604398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04483104986626668</v>
+        <v>0.04983937321054331</v>
       </c>
       <c r="C32">
-        <v>0.001858066314820323</v>
+        <v>0.001093542720890243</v>
       </c>
       <c r="D32">
-        <v>0.03287618925315244</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03688413183972542</v>
+      </c>
+      <c r="E32">
+        <v>-0.03423114056614156</v>
+      </c>
+      <c r="F32">
+        <v>-0.001639173016511818</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08648777428881831</v>
+        <v>0.08787989899223107</v>
       </c>
       <c r="C33">
-        <v>0.01375382912485192</v>
+        <v>-0.008302080455554578</v>
       </c>
       <c r="D33">
-        <v>0.09556792928914744</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1067394644558591</v>
+      </c>
+      <c r="E33">
+        <v>-0.0599318497799063</v>
+      </c>
+      <c r="F33">
+        <v>0.02405274697784336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.0646444735233009</v>
+        <v>0.06442023919829681</v>
       </c>
       <c r="C34">
-        <v>0.01538833984533345</v>
+        <v>-0.0107694407582477</v>
       </c>
       <c r="D34">
-        <v>0.1024955374366301</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1135534222296661</v>
+      </c>
+      <c r="E34">
+        <v>-0.04509557118626599</v>
+      </c>
+      <c r="F34">
+        <v>0.03931201112970389</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02720205034760293</v>
+        <v>0.0284228904575145</v>
       </c>
       <c r="C35">
-        <v>0.005228051468095309</v>
+        <v>-0.004547117158701753</v>
       </c>
       <c r="D35">
-        <v>0.0092726573312131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01247697328595729</v>
+      </c>
+      <c r="E35">
+        <v>-0.01936122882757898</v>
+      </c>
+      <c r="F35">
+        <v>-0.002317868423997911</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02319637535367686</v>
+        <v>0.02792672417347056</v>
       </c>
       <c r="C36">
-        <v>0.008423207704707622</v>
+        <v>-0.007476373344021765</v>
       </c>
       <c r="D36">
-        <v>0.04094437443283742</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04388093809178526</v>
+      </c>
+      <c r="E36">
+        <v>-0.02495899216982138</v>
+      </c>
+      <c r="F36">
+        <v>0.01772479472718682</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.00302952263905931</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0008717358935324764</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003047181651495947</v>
+      </c>
+      <c r="E37">
+        <v>-0.001055890918408707</v>
+      </c>
+      <c r="F37">
+        <v>-0.001612957221548548</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.101694827204765</v>
+        <v>0.0931392457026556</v>
       </c>
       <c r="C39">
-        <v>0.02189900872430307</v>
+        <v>-0.01586554542561972</v>
       </c>
       <c r="D39">
-        <v>0.1562638677838704</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1543367714021934</v>
+      </c>
+      <c r="E39">
+        <v>-0.0739289408184879</v>
+      </c>
+      <c r="F39">
+        <v>0.004331087940018191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04297311064779141</v>
+        <v>0.04827987655408326</v>
       </c>
       <c r="C40">
-        <v>0.011824058699535</v>
+        <v>-0.01025860582269334</v>
       </c>
       <c r="D40">
-        <v>0.03288036323354115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03958820823229291</v>
+      </c>
+      <c r="E40">
+        <v>-0.004221724304267017</v>
+      </c>
+      <c r="F40">
+        <v>-0.02342656455546779</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02601315901864482</v>
+        <v>0.02825871335094873</v>
       </c>
       <c r="C41">
-        <v>0.008367653618916723</v>
+        <v>-0.007904650081641195</v>
       </c>
       <c r="D41">
-        <v>0.01279295873884641</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01416732799527911</v>
+      </c>
+      <c r="E41">
+        <v>-0.01187568616366255</v>
+      </c>
+      <c r="F41">
+        <v>-0.01059325322313621</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04040603748543944</v>
+        <v>0.03932848307334351</v>
       </c>
       <c r="C43">
-        <v>0.009157862087622768</v>
+        <v>-0.00820695960658486</v>
       </c>
       <c r="D43">
-        <v>0.02279294140395636</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02343921589674398</v>
+      </c>
+      <c r="E43">
+        <v>-0.02849995768465176</v>
+      </c>
+      <c r="F43">
+        <v>-0.02421026700947432</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06237577853477125</v>
+        <v>0.06960186742830475</v>
       </c>
       <c r="C44">
-        <v>0.02241449163589534</v>
+        <v>-0.01880755765264195</v>
       </c>
       <c r="D44">
-        <v>0.07682622114725622</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.08607656005505311</v>
+      </c>
+      <c r="E44">
+        <v>-0.07704858571786706</v>
+      </c>
+      <c r="F44">
+        <v>0.2110122767866439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0001279208312210509</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>-6.320594844334795e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>4.08713221448146e-05</v>
+      </c>
+      <c r="E45">
+        <v>0.0003382171394844318</v>
+      </c>
+      <c r="F45">
+        <v>-5.691980382146309e-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02286658217701038</v>
+        <v>0.0252468924637879</v>
       </c>
       <c r="C46">
-        <v>0.005194947589794094</v>
+        <v>-0.004239153041474324</v>
       </c>
       <c r="D46">
-        <v>0.01522410483855852</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01814047446931083</v>
+      </c>
+      <c r="E46">
+        <v>-0.0350952181461411</v>
+      </c>
+      <c r="F46">
+        <v>-0.02464244526468214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05409700331680106</v>
+        <v>0.05304536449124945</v>
       </c>
       <c r="C47">
-        <v>0.007423269116164425</v>
+        <v>-0.005800434880077413</v>
       </c>
       <c r="D47">
-        <v>0.01140173413453687</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01363963528433869</v>
+      </c>
+      <c r="E47">
+        <v>-0.02417049656517712</v>
+      </c>
+      <c r="F47">
+        <v>-0.04499792140191115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04906574933379735</v>
+        <v>0.05290394713502573</v>
       </c>
       <c r="C48">
-        <v>0.006369929600070417</v>
+        <v>-0.003745505156511902</v>
       </c>
       <c r="D48">
-        <v>0.05716362343219761</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05868614485691066</v>
+      </c>
+      <c r="E48">
+        <v>-0.007785496666395894</v>
+      </c>
+      <c r="F48">
+        <v>0.01464633155067228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1951918838539335</v>
+        <v>0.1976675821949039</v>
       </c>
       <c r="C49">
-        <v>0.0281532534999772</v>
+        <v>-0.02436831372642197</v>
       </c>
       <c r="D49">
-        <v>-0.0106739541423471</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.004827585713025514</v>
+      </c>
+      <c r="E49">
+        <v>-0.01775652819059855</v>
+      </c>
+      <c r="F49">
+        <v>0.0613229779207705</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.0493539823828783</v>
+        <v>0.0522175298639076</v>
       </c>
       <c r="C50">
-        <v>0.01468386435495724</v>
+        <v>-0.01318202498459924</v>
       </c>
       <c r="D50">
-        <v>0.02567174054407985</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02790434765288697</v>
+      </c>
+      <c r="E50">
+        <v>-0.03384377875061464</v>
+      </c>
+      <c r="F50">
+        <v>0.00636212599093632</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1513766791361344</v>
+        <v>0.1450282326076418</v>
       </c>
       <c r="C52">
-        <v>0.0250541542441874</v>
+        <v>-0.0212535519302217</v>
       </c>
       <c r="D52">
-        <v>0.04366228299761638</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.0457652098283101</v>
+      </c>
+      <c r="E52">
+        <v>-0.03588882961880783</v>
+      </c>
+      <c r="F52">
+        <v>0.03565053716180042</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1744749757889146</v>
+        <v>0.1672749878303023</v>
       </c>
       <c r="C53">
-        <v>0.02787774582151198</v>
+        <v>-0.02529659390934916</v>
       </c>
       <c r="D53">
-        <v>0.005178473883774965</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.00745930233945219</v>
+      </c>
+      <c r="E53">
+        <v>-0.04403568606516507</v>
+      </c>
+      <c r="F53">
+        <v>0.08241568038806621</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01454500898723574</v>
+        <v>0.01814101835162862</v>
       </c>
       <c r="C54">
-        <v>0.01191685705197387</v>
+        <v>-0.01130017960619284</v>
       </c>
       <c r="D54">
-        <v>0.02880651397924839</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02862156948856744</v>
+      </c>
+      <c r="E54">
+        <v>-0.02204168971938441</v>
+      </c>
+      <c r="F54">
+        <v>-0.002987833172719069</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1198495157230582</v>
+        <v>0.1171885333149892</v>
       </c>
       <c r="C55">
-        <v>0.02455702238473196</v>
+        <v>-0.02227128273209413</v>
       </c>
       <c r="D55">
-        <v>0.006268134188397259</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01368423624045738</v>
+      </c>
+      <c r="E55">
+        <v>-0.04422168967234112</v>
+      </c>
+      <c r="F55">
+        <v>0.02664047667569573</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1805135706725237</v>
+        <v>0.1748124476827473</v>
       </c>
       <c r="C56">
-        <v>0.02622133085309604</v>
+        <v>-0.02394691034544779</v>
       </c>
       <c r="D56">
-        <v>-0.002566950238238424</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0005852751562370488</v>
+      </c>
+      <c r="E56">
+        <v>-0.04211944268717379</v>
+      </c>
+      <c r="F56">
+        <v>0.04247084454728513</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04495211899060081</v>
+        <v>0.04404809363357075</v>
       </c>
       <c r="C58">
-        <v>0.00434131515941002</v>
+        <v>-0.0003135434839071048</v>
       </c>
       <c r="D58">
-        <v>0.07284045255443748</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.0813429462658901</v>
+      </c>
+      <c r="E58">
+        <v>-0.04400739078077806</v>
+      </c>
+      <c r="F58">
+        <v>-0.04772111351797607</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1696766814952443</v>
+        <v>0.1745043631663085</v>
       </c>
       <c r="C59">
-        <v>0.0261699679460174</v>
+        <v>-0.02994777177193591</v>
       </c>
       <c r="D59">
-        <v>-0.2133953283429259</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2118105717531703</v>
+      </c>
+      <c r="E59">
+        <v>0.05831098489946569</v>
+      </c>
+      <c r="F59">
+        <v>-0.06402943085527794</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2255412017385114</v>
+        <v>0.2202937542039491</v>
       </c>
       <c r="C60">
-        <v>0.007989627077122065</v>
+        <v>-0.003398602101329404</v>
       </c>
       <c r="D60">
-        <v>0.02154275904053469</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.02220253251099536</v>
+      </c>
+      <c r="E60">
+        <v>0.01554068847292286</v>
+      </c>
+      <c r="F60">
+        <v>-0.006456323315876783</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.07432937961669997</v>
+        <v>0.07043244541407538</v>
       </c>
       <c r="C61">
-        <v>0.01563574870472056</v>
+        <v>-0.01061302391039341</v>
       </c>
       <c r="D61">
-        <v>0.116627632962722</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1194383002776896</v>
+      </c>
+      <c r="E61">
+        <v>-0.04308700984279094</v>
+      </c>
+      <c r="F61">
+        <v>-0.003688271015870414</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1714033907799939</v>
+        <v>0.1671912976340287</v>
       </c>
       <c r="C62">
-        <v>0.02902841635136498</v>
+        <v>-0.02606548327256982</v>
       </c>
       <c r="D62">
-        <v>0.002878714341193822</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.008040806442030498</v>
+      </c>
+      <c r="E62">
+        <v>-0.04814850370070504</v>
+      </c>
+      <c r="F62">
+        <v>0.02409032360875458</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.0430274451667553</v>
+        <v>0.04778300020976873</v>
       </c>
       <c r="C63">
-        <v>0.006071314677387136</v>
+        <v>-0.00345626284463014</v>
       </c>
       <c r="D63">
-        <v>0.06203763140575417</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06998683019810101</v>
+      </c>
+      <c r="E63">
+        <v>-0.03076515142924401</v>
+      </c>
+      <c r="F63">
+        <v>-0.004638325457637925</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1140424351053932</v>
+        <v>0.1111934064802042</v>
       </c>
       <c r="C64">
-        <v>0.01927929055526391</v>
+        <v>-0.01550546986987843</v>
       </c>
       <c r="D64">
-        <v>0.04630267964072798</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04990685181973434</v>
+      </c>
+      <c r="E64">
+        <v>-0.03434467851952223</v>
+      </c>
+      <c r="F64">
+        <v>0.0215402608228652</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.15071255039942</v>
+        <v>0.1562391281565894</v>
       </c>
       <c r="C65">
-        <v>0.04225171778645706</v>
+        <v>-0.04095266621561407</v>
       </c>
       <c r="D65">
-        <v>-0.04721233359512621</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03649803602784251</v>
+      </c>
+      <c r="E65">
+        <v>-0.01305217781897973</v>
+      </c>
+      <c r="F65">
+        <v>0.05350273944918861</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1237333107214103</v>
+        <v>0.1128715477684454</v>
       </c>
       <c r="C66">
-        <v>0.02089740185154998</v>
+        <v>-0.01423600876240423</v>
       </c>
       <c r="D66">
-        <v>0.1407233580176729</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1439880410396202</v>
+      </c>
+      <c r="E66">
+        <v>-0.07045500783343553</v>
+      </c>
+      <c r="F66">
+        <v>0.009529669735875698</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06018487970263125</v>
+        <v>0.05309312004878266</v>
       </c>
       <c r="C67">
-        <v>0.00652484026844705</v>
+        <v>-0.003933275449971892</v>
       </c>
       <c r="D67">
-        <v>0.05130751605908959</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05451264598979842</v>
+      </c>
+      <c r="E67">
+        <v>-0.02131457713253657</v>
+      </c>
+      <c r="F67">
+        <v>-0.08297527947688879</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1195314529020764</v>
+        <v>0.1261527945851251</v>
       </c>
       <c r="C68">
-        <v>0.03448195978525917</v>
+        <v>-0.04023874137743527</v>
       </c>
       <c r="D68">
-        <v>-0.2528911172847203</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2518739012728152</v>
+      </c>
+      <c r="E68">
+        <v>0.08901614970028128</v>
+      </c>
+      <c r="F68">
+        <v>0.03065239972646083</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03965107914787736</v>
+        <v>0.03895770880265085</v>
       </c>
       <c r="C69">
-        <v>0.00347953058032779</v>
+        <v>-0.002413927249164166</v>
       </c>
       <c r="D69">
-        <v>0.009361188388478284</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01001346677252932</v>
+      </c>
+      <c r="E69">
+        <v>-0.03077455000589532</v>
+      </c>
+      <c r="F69">
+        <v>-0.02125359199864988</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06874809370614296</v>
+        <v>0.06989634113050841</v>
       </c>
       <c r="C70">
-        <v>-0.02283603227515394</v>
+        <v>0.02467710767667047</v>
       </c>
       <c r="D70">
-        <v>0.03766098253459355</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.03627606435553104</v>
+      </c>
+      <c r="E70">
+        <v>0.04452997692183976</v>
+      </c>
+      <c r="F70">
+        <v>-0.3531985226951865</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1391569129786921</v>
+        <v>0.1467418730796192</v>
       </c>
       <c r="C71">
-        <v>0.040027993663096</v>
+        <v>-0.0455955028799573</v>
       </c>
       <c r="D71">
-        <v>-0.2657424883990078</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2605513587862717</v>
+      </c>
+      <c r="E71">
+        <v>0.09855421538512092</v>
+      </c>
+      <c r="F71">
+        <v>0.03140626046851687</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.138083339816309</v>
+        <v>0.1442884293693732</v>
       </c>
       <c r="C72">
-        <v>0.03271026304051124</v>
+        <v>-0.03183931203884082</v>
       </c>
       <c r="D72">
-        <v>0.004175456302803685</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.001617638614589971</v>
+      </c>
+      <c r="E72">
+        <v>-0.04749506684783907</v>
+      </c>
+      <c r="F72">
+        <v>0.03015009806309452</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.1963543142816503</v>
+        <v>0.2006198790617513</v>
       </c>
       <c r="C73">
-        <v>0.02173832245369036</v>
+        <v>-0.01654644031749609</v>
       </c>
       <c r="D73">
-        <v>0.00980799662873578</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01698419231633647</v>
+      </c>
+      <c r="E73">
+        <v>-0.0630761156178283</v>
+      </c>
+      <c r="F73">
+        <v>0.01793628530276755</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08831157040964532</v>
+        <v>0.08830836022853884</v>
       </c>
       <c r="C74">
-        <v>0.01652286136798</v>
+        <v>-0.01453364026719764</v>
       </c>
       <c r="D74">
-        <v>0.01200964909900066</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01704154482891893</v>
+      </c>
+      <c r="E74">
+        <v>-0.05005558082661148</v>
+      </c>
+      <c r="F74">
+        <v>0.04821391398436176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1300797633709966</v>
+        <v>0.1225640871200386</v>
       </c>
       <c r="C75">
-        <v>0.03494317602013679</v>
+        <v>-0.03159924451544757</v>
       </c>
       <c r="D75">
-        <v>0.02800547287332117</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03292266336986317</v>
+      </c>
+      <c r="E75">
+        <v>-0.06413301800345766</v>
+      </c>
+      <c r="F75">
+        <v>0.01049956827911299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.078790899111854</v>
+        <v>0.09220257040576343</v>
       </c>
       <c r="C77">
-        <v>0.01493718583876386</v>
+        <v>-0.01067591761360524</v>
       </c>
       <c r="D77">
-        <v>0.1240156200529664</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1240684557359088</v>
+      </c>
+      <c r="E77">
+        <v>-0.0553261863604162</v>
+      </c>
+      <c r="F77">
+        <v>0.05087366284345286</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09661079328211182</v>
+        <v>0.09830182644370138</v>
       </c>
       <c r="C78">
-        <v>0.04401559162573452</v>
+        <v>-0.04046435285615668</v>
       </c>
       <c r="D78">
-        <v>0.1175725036689542</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1155177980592108</v>
+      </c>
+      <c r="E78">
+        <v>-0.07843946883442712</v>
+      </c>
+      <c r="F78">
+        <v>0.03971240988639391</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.168642762441713</v>
+        <v>0.164238060752941</v>
       </c>
       <c r="C79">
-        <v>0.03250367822459078</v>
+        <v>-0.02910661066270115</v>
       </c>
       <c r="D79">
-        <v>0.01364761954208163</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01885582908651526</v>
+      </c>
+      <c r="E79">
+        <v>-0.05030988244096039</v>
+      </c>
+      <c r="F79">
+        <v>0.006828321690404613</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07952728293950716</v>
+        <v>0.07800444594774415</v>
       </c>
       <c r="C80">
-        <v>0.003774290857352142</v>
+        <v>-0.001406218411748156</v>
       </c>
       <c r="D80">
-        <v>0.04979283688269073</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05086144112819613</v>
+      </c>
+      <c r="E80">
+        <v>-0.04186737048127517</v>
+      </c>
+      <c r="F80">
+        <v>-0.05115862282130913</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1177287147059474</v>
+        <v>0.1116566210544841</v>
       </c>
       <c r="C81">
-        <v>0.03672059262164328</v>
+        <v>-0.03487912229841969</v>
       </c>
       <c r="D81">
-        <v>0.00546962170142661</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01087367788593868</v>
+      </c>
+      <c r="E81">
+        <v>-0.05716195442457043</v>
+      </c>
+      <c r="F81">
+        <v>0.0007276249633806428</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1632700669211798</v>
+        <v>0.1614258931395315</v>
       </c>
       <c r="C82">
-        <v>0.0322301007604189</v>
+        <v>-0.02973440042520438</v>
       </c>
       <c r="D82">
-        <v>0.004817692302386222</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.004947103276925578</v>
+      </c>
+      <c r="E82">
+        <v>-0.04369884685577562</v>
+      </c>
+      <c r="F82">
+        <v>0.08183074159837904</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05539038229076972</v>
+        <v>0.05130894904635971</v>
       </c>
       <c r="C83">
-        <v>0.005501729579605958</v>
+        <v>-0.003522637384329895</v>
       </c>
       <c r="D83">
-        <v>0.03790158578818646</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.038007684956504</v>
+      </c>
+      <c r="E83">
+        <v>0.009567229072168615</v>
+      </c>
+      <c r="F83">
+        <v>-0.02792977272637211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05607937323847562</v>
+        <v>0.05256622075147364</v>
       </c>
       <c r="C84">
-        <v>0.01375718487771488</v>
+        <v>-0.01090834357507468</v>
       </c>
       <c r="D84">
-        <v>0.07347816913300859</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07426659381124533</v>
+      </c>
+      <c r="E84">
+        <v>-0.02254596297927198</v>
+      </c>
+      <c r="F84">
+        <v>0.003178513833498256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1401829458715285</v>
+        <v>0.1346795123291125</v>
       </c>
       <c r="C85">
-        <v>0.03566553038839503</v>
+        <v>-0.03313219792999475</v>
       </c>
       <c r="D85">
-        <v>0.00896508320185087</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01279714789366221</v>
+      </c>
+      <c r="E85">
+        <v>-0.05022772442410156</v>
+      </c>
+      <c r="F85">
+        <v>0.05273632211265362</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08193655244978409</v>
+        <v>0.08092383487261601</v>
       </c>
       <c r="C86">
-        <v>-0.004778489009678425</v>
+        <v>0.007036153691555093</v>
       </c>
       <c r="D86">
-        <v>0.0279375520445101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05341044577771217</v>
+      </c>
+      <c r="E86">
+        <v>-0.06151968307786559</v>
+      </c>
+      <c r="F86">
+        <v>-0.8131820184838977</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.08840010992379811</v>
+        <v>0.08876406038542806</v>
       </c>
       <c r="C87">
-        <v>0.02666970632612654</v>
+        <v>-0.02190754340430694</v>
       </c>
       <c r="D87">
-        <v>0.08540028289004864</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08868460631787001</v>
+      </c>
+      <c r="E87">
+        <v>0.05617745764153968</v>
+      </c>
+      <c r="F87">
+        <v>0.08813726842156211</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06190525889227692</v>
+        <v>0.06098326160979616</v>
       </c>
       <c r="C88">
-        <v>0.006933712894742625</v>
+        <v>-0.004274001878176044</v>
       </c>
       <c r="D88">
-        <v>0.05530802184154384</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.05447210319564415</v>
+      </c>
+      <c r="E88">
+        <v>-0.03318873866970467</v>
+      </c>
+      <c r="F88">
+        <v>0.001828197819503316</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1283432210214469</v>
+        <v>0.1336065859326492</v>
       </c>
       <c r="C89">
-        <v>0.01489946090190096</v>
+        <v>-0.02021317275172436</v>
       </c>
       <c r="D89">
-        <v>-0.2304023356257575</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2349575344286773</v>
+      </c>
+      <c r="E89">
+        <v>0.09139239157997681</v>
+      </c>
+      <c r="F89">
+        <v>0.01963252214069714</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1507209078364144</v>
+        <v>0.1620752381786144</v>
       </c>
       <c r="C90">
-        <v>0.03663923141641388</v>
+        <v>-0.04290897069639757</v>
       </c>
       <c r="D90">
-        <v>-0.2555690534217814</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2588845317944032</v>
+      </c>
+      <c r="E90">
+        <v>0.1183010359404663</v>
+      </c>
+      <c r="F90">
+        <v>0.02409621574872356</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1259217977211584</v>
+        <v>0.1213869397454766</v>
       </c>
       <c r="C91">
-        <v>0.0264518784260376</v>
+        <v>-0.02502598916274299</v>
       </c>
       <c r="D91">
-        <v>-0.01876277531188526</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01438148079231135</v>
+      </c>
+      <c r="E91">
+        <v>-0.05709097413404286</v>
+      </c>
+      <c r="F91">
+        <v>-0.0262060393988144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1511619078822257</v>
+        <v>0.1547793726461593</v>
       </c>
       <c r="C92">
-        <v>0.02759982002631911</v>
+        <v>-0.03332520911169301</v>
       </c>
       <c r="D92">
-        <v>-0.2810671580640668</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2844973201008333</v>
+      </c>
+      <c r="E92">
+        <v>0.1068475618567292</v>
+      </c>
+      <c r="F92">
+        <v>0.01027374662419506</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1549415423262385</v>
+        <v>0.1643533778614531</v>
       </c>
       <c r="C93">
-        <v>0.03249989510392461</v>
+        <v>-0.03753124399703046</v>
       </c>
       <c r="D93">
-        <v>-0.2486735440807062</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2522416466118373</v>
+      </c>
+      <c r="E93">
+        <v>0.07024707527450461</v>
+      </c>
+      <c r="F93">
+        <v>0.02150345984568762</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1290630784224969</v>
+        <v>0.1217461229521086</v>
       </c>
       <c r="C94">
-        <v>0.0309729759004071</v>
+        <v>-0.02722051572931692</v>
       </c>
       <c r="D94">
-        <v>0.04035501957923462</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04397564706655739</v>
+      </c>
+      <c r="E94">
+        <v>-0.06616323689941457</v>
+      </c>
+      <c r="F94">
+        <v>0.01435310691065261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1259141425367708</v>
+        <v>0.1288196016456659</v>
       </c>
       <c r="C95">
-        <v>0.01296720554445287</v>
+        <v>-0.007314469184577111</v>
       </c>
       <c r="D95">
-        <v>0.0966974648009673</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1077108568530959</v>
+      </c>
+      <c r="E95">
+        <v>-0.06517864366758033</v>
+      </c>
+      <c r="F95">
+        <v>-0.02319387207677309</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1585300805508744</v>
+        <v>0.1434024597835961</v>
       </c>
       <c r="C96">
-        <v>-0.9814176734017889</v>
+        <v>0.982658180481422</v>
       </c>
       <c r="D96">
-        <v>-0.03487602919184047</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05800173775633456</v>
+      </c>
+      <c r="E96">
+        <v>-0.05259906236576128</v>
+      </c>
+      <c r="F96">
+        <v>0.04251215854037727</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1907223336620544</v>
+        <v>0.1939236622937485</v>
       </c>
       <c r="C97">
-        <v>0.003051370245530313</v>
+        <v>-0.0004281554431535478</v>
       </c>
       <c r="D97">
-        <v>-0.01853091130117177</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.02428934181861903</v>
+      </c>
+      <c r="E97">
+        <v>-0.01592925093236105</v>
+      </c>
+      <c r="F97">
+        <v>-0.1757637422555526</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1948787369888059</v>
+        <v>0.2006798960602554</v>
       </c>
       <c r="C98">
-        <v>0.0164982619449385</v>
+        <v>-0.0113650608076261</v>
       </c>
       <c r="D98">
-        <v>0.01140043591646511</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01384128694707426</v>
+      </c>
+      <c r="E98">
+        <v>0.1009128146674886</v>
+      </c>
+      <c r="F98">
+        <v>-0.08370569666798004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05795085437183273</v>
+        <v>0.05753202353704846</v>
       </c>
       <c r="C99">
-        <v>0.0001461552269673005</v>
+        <v>0.002230424816837643</v>
       </c>
       <c r="D99">
-        <v>0.04453316353397132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04956025650100741</v>
+      </c>
+      <c r="E99">
+        <v>-0.03127961038718571</v>
+      </c>
+      <c r="F99">
+        <v>-0.006318177416563171</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1401705882541837</v>
+        <v>0.1303721188055948</v>
       </c>
       <c r="C100">
-        <v>-0.03650712168819398</v>
+        <v>0.0459956903187843</v>
       </c>
       <c r="D100">
-        <v>0.4176894892765863</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3762705081719555</v>
+      </c>
+      <c r="E100">
+        <v>0.8868301646817357</v>
+      </c>
+      <c r="F100">
+        <v>0.009398083059039565</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02561139596289676</v>
+        <v>0.02792631534472242</v>
       </c>
       <c r="C101">
-        <v>0.009995891516068514</v>
+        <v>-0.009127950392357498</v>
       </c>
       <c r="D101">
-        <v>0.03160234073633009</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03353823179019768</v>
+      </c>
+      <c r="E101">
+        <v>-0.01596014115668067</v>
+      </c>
+      <c r="F101">
+        <v>-0.02075494036447637</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
